--- a/draw.xlsx
+++ b/draw.xlsx
@@ -8,12 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\thesis\thesis\latex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AD87B67-564F-4137-9050-0674F74B15C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93407C5A-27F6-48E9-8E24-971139F3F4F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="11830" xr2:uid="{4F38E138-DC1E-44E5-B0FB-1EE7C4DC78B3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="11830" activeTab="4" xr2:uid="{4F38E138-DC1E-44E5-B0FB-1EE7C4DC78B3}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="Initialize" sheetId="2" r:id="rId2"/>
+    <sheet name="Measurement" sheetId="3" r:id="rId3"/>
+    <sheet name="trading strategy" sheetId="4" r:id="rId4"/>
+    <sheet name="QN gate" sheetId="5" r:id="rId5"/>
+    <sheet name="delta" sheetId="6" r:id="rId6"/>
+    <sheet name="sliding window" sheetId="7" r:id="rId7"/>
+    <sheet name="test1" sheetId="8" r:id="rId8"/>
+    <sheet name="test2" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="84">
   <si>
     <t>SMA 5</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,13 +53,916 @@
   <si>
     <t>holding period</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>beta matrix</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>random number</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>bit</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>RSI look back period</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>bit</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>bit</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>bit</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>bit</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>bit</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>bit</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>bit</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>bit</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>oversold threshold</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>bit</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>bit</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>bit</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>bit</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>bit</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>bit</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>bit</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>overbought threshold</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>bit</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>21</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>bit</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>bit</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>bit</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>bit</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>bit</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>bit</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.59</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>global best</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>local worst</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>QN gate</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>QN</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>updated  beta matrix</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0.35</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>–</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="20"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>θ</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0.56 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>+ </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="20"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>θ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>　</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0.65 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>+ </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="20"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>θ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>　</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0.49</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>–</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="20"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>θ</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0.59 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>+ </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="20"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>θ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>　</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>H2Q</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jul</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aug</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sep</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oct</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nov</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dec</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jan</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Feb</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mar</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apr</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>May</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jun</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Train(1)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test(1)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Train(2)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test(2)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>M2M</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Train(3)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test(3)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2010/07</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2010/08</t>
+  </si>
+  <si>
+    <t>2010/09</t>
+  </si>
+  <si>
+    <t>2010/10</t>
+  </si>
+  <si>
+    <t>2010/11</t>
+  </si>
+  <si>
+    <t>2010/12</t>
+  </si>
+  <si>
+    <t>2011/01</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2011/02</t>
+  </si>
+  <si>
+    <t>2011/03</t>
+  </si>
+  <si>
+    <t>2011/04</t>
+  </si>
+  <si>
+    <t>2011/05</t>
+  </si>
+  <si>
+    <t>2011/06</t>
+  </si>
+  <si>
+    <t>2010/12</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t></t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>r</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>oversold</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>overbought</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+  </numFmts>
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -65,16 +976,176 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <vertAlign val="subscript"/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FFFFFF00"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="20"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="20"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Wingdings"/>
+      <charset val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -82,19 +1153,296 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="5" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="8" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="9" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="8" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="5" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="9" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="8" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="5" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="5" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="5" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="8" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="9" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="8" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="8" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{A5BEF695-5737-4043-9E87-9F5C2181ACA1}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1348,6 +2696,681 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文字方塊 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4B788A8-E768-4D89-9AC3-A0EE43D75465}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3460750" y="4533900"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文字方塊 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34006E54-97C9-4C3E-A904-97C2E6574DFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4540250" y="1841500"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="文字方塊 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90178F07-0207-4A1E-872A-FE8AE6DBC198}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10960100" y="4298950"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="文字方塊 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBBB3D81-5558-4145-8442-8B1756B23AC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13398500" y="4298950"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="文字方塊 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B168A2B-B963-457C-98F3-CD13776D9CFA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4540250" y="1841500"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="文字方塊 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D7AF9D4-E2A3-475A-A605-6665DD00EE4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7105650" y="1841500"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="文字方塊 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D05739FD-F9B8-4840-B056-434C65A8239E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5153479" y="1855107"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="文字方塊 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF76D43C-C96D-4584-B430-ABB9D917837F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5153479" y="1855107"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="文字方塊 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0054D765-AFB7-4037-A368-FA92EFBAEEA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8237764" y="1855107"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文字方塊 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25BFD70A-FD6B-4E46-AF68-BE74BF11004E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3003550" y="1320800"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="文字方塊 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06624D43-F0F5-4F88-A295-9BA689B8FECC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8153400" y="4603750"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="文字方塊 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEE43405-E54F-4106-8D6A-AB8AA2F1D0EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3057979" y="1328964"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
@@ -1647,7 +3670,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C1D073C-C20D-4FA4-B550-A4697CBAACC7}">
   <dimension ref="C2:K77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
@@ -2860,4 +4883,3185 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D743717B-B531-4DBE-A1F3-1D8371EEDE38}">
+  <dimension ref="B2:AH20"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="Y18" sqref="Y18:AH20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" style="4"/>
+    <col min="2" max="2" width="16.08203125" style="4" customWidth="1"/>
+    <col min="3" max="10" width="8.6640625" style="4"/>
+    <col min="11" max="11" width="3.58203125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="5" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="19" width="8.6640625" style="4"/>
+    <col min="20" max="20" width="8" style="4" customWidth="1"/>
+    <col min="21" max="21" width="16.1640625" style="4" customWidth="1"/>
+    <col min="22" max="23" width="8.6640625" style="4"/>
+    <col min="24" max="24" width="18.75" style="4" customWidth="1"/>
+    <col min="25" max="25" width="5.9140625" style="4" customWidth="1"/>
+    <col min="26" max="33" width="8.6640625" style="4"/>
+    <col min="34" max="34" width="18.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="35" max="16384" width="8.6640625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2">
+        <v>2</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="2:21" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="L11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M11" s="2">
+        <v>7</v>
+      </c>
+      <c r="N11" s="2">
+        <v>6</v>
+      </c>
+      <c r="O11" s="2">
+        <v>5</v>
+      </c>
+      <c r="P11" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>3</v>
+      </c>
+      <c r="R11" s="2">
+        <v>2</v>
+      </c>
+      <c r="S11" s="2">
+        <v>1</v>
+      </c>
+      <c r="T11" s="2">
+        <v>0</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="5"/>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="L13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M13" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="N13" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="O13" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="P13" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="R13" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="S13" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="T13" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="24:34" x14ac:dyDescent="0.35">
+      <c r="X18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y18" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z18" s="2">
+        <v>7</v>
+      </c>
+      <c r="AA18" s="2">
+        <v>6</v>
+      </c>
+      <c r="AB18" s="2">
+        <v>5</v>
+      </c>
+      <c r="AC18" s="2">
+        <v>4</v>
+      </c>
+      <c r="AD18" s="2">
+        <v>3</v>
+      </c>
+      <c r="AE18" s="2">
+        <v>2</v>
+      </c>
+      <c r="AF18" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="24:34" x14ac:dyDescent="0.35">
+      <c r="X19" s="5"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="6"/>
+      <c r="AC19" s="6"/>
+      <c r="AD19" s="6"/>
+      <c r="AE19" s="6"/>
+      <c r="AF19" s="6"/>
+      <c r="AG19" s="6"/>
+      <c r="AH19" s="5"/>
+    </row>
+    <row r="20" spans="24:34" x14ac:dyDescent="0.35">
+      <c r="X20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y20" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z20" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="AA20" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="AB20" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="AC20" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="AD20" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="AE20" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="AF20" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="AG20" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="AH20" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED897CCE-4F01-46F3-B36B-EEB279795450}">
+  <dimension ref="B1:AG27"/>
+  <sheetViews>
+    <sheetView topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X21" sqref="X21:AG27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" style="3"/>
+    <col min="2" max="2" width="22.08203125" style="3" customWidth="1"/>
+    <col min="3" max="10" width="10.08203125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="3.58203125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="3.58203125" style="3" customWidth="1"/>
+    <col min="13" max="20" width="8" style="3" customWidth="1"/>
+    <col min="21" max="21" width="22.1640625" style="3" customWidth="1"/>
+    <col min="22" max="22" width="8.6640625" style="3"/>
+    <col min="23" max="23" width="18.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.9140625" style="3" customWidth="1"/>
+    <col min="25" max="32" width="10.08203125" style="3" customWidth="1"/>
+    <col min="33" max="33" width="18.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="34" max="16384" width="8.6640625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="L1" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="2:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2">
+        <v>2</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="2:21" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="2:21" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0.65</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0.79</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0.63</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0.98</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0.22</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0.46</v>
+      </c>
+      <c r="I6" s="10">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J6" s="10">
+        <v>0.37</v>
+      </c>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="2:21" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="1"/>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="11">
+        <v>0</v>
+      </c>
+      <c r="D8" s="11">
+        <v>0</v>
+      </c>
+      <c r="E8" s="11">
+        <v>0</v>
+      </c>
+      <c r="F8" s="11">
+        <v>0</v>
+      </c>
+      <c r="G8" s="12">
+        <v>1</v>
+      </c>
+      <c r="H8" s="11">
+        <v>1</v>
+      </c>
+      <c r="I8" s="12">
+        <v>0</v>
+      </c>
+      <c r="J8" s="12">
+        <v>1</v>
+      </c>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="L10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M10" s="2">
+        <v>7</v>
+      </c>
+      <c r="N10" s="2">
+        <v>6</v>
+      </c>
+      <c r="O10" s="2">
+        <v>5</v>
+      </c>
+      <c r="P10" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>3</v>
+      </c>
+      <c r="R10" s="2">
+        <v>2</v>
+      </c>
+      <c r="S10" s="2">
+        <v>1</v>
+      </c>
+      <c r="T10" s="2">
+        <v>0</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="5"/>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="L12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="O12" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="P12" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="R12" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="S12" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="T12" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="1"/>
+      <c r="L13" s="4"/>
+      <c r="U13" s="1"/>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="L14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M14" s="9">
+        <v>0.65</v>
+      </c>
+      <c r="N14" s="9">
+        <v>0.79</v>
+      </c>
+      <c r="O14" s="9">
+        <v>0.63</v>
+      </c>
+      <c r="P14" s="9">
+        <v>0.98</v>
+      </c>
+      <c r="Q14" s="9">
+        <v>0.22</v>
+      </c>
+      <c r="R14" s="9">
+        <v>0.46</v>
+      </c>
+      <c r="S14" s="10">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="T14" s="10">
+        <v>0.37</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="1"/>
+      <c r="L15" s="6"/>
+      <c r="U15" s="1"/>
+    </row>
+    <row r="16" spans="2:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="1"/>
+      <c r="L16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M16" s="11">
+        <v>0</v>
+      </c>
+      <c r="N16" s="11">
+        <v>0</v>
+      </c>
+      <c r="O16" s="11">
+        <v>0</v>
+      </c>
+      <c r="P16" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="11">
+        <v>1</v>
+      </c>
+      <c r="R16" s="11">
+        <v>1</v>
+      </c>
+      <c r="S16" s="12">
+        <v>0</v>
+      </c>
+      <c r="T16" s="12">
+        <v>1</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B19" s="1"/>
+    </row>
+    <row r="21" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="W21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="X21" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y21" s="2">
+        <v>7</v>
+      </c>
+      <c r="Z21" s="2">
+        <v>6</v>
+      </c>
+      <c r="AA21" s="2">
+        <v>5</v>
+      </c>
+      <c r="AB21" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC21" s="2">
+        <v>3</v>
+      </c>
+      <c r="AD21" s="2">
+        <v>2</v>
+      </c>
+      <c r="AE21" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="V22" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="W22" s="5"/>
+      <c r="Y22" s="6"/>
+      <c r="Z22" s="6"/>
+      <c r="AA22" s="6"/>
+      <c r="AB22" s="6"/>
+      <c r="AC22" s="6"/>
+      <c r="AD22" s="6"/>
+      <c r="AE22" s="6"/>
+      <c r="AF22" s="6"/>
+      <c r="AG22" s="5"/>
+    </row>
+    <row r="23" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="V23" s="6"/>
+      <c r="W23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="X23" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y23" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="Z23" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="AA23" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="AB23" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="AC23" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="AD23" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="AE23" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="AF23" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="AG23" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="V24" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="W24" s="1"/>
+      <c r="AG24" s="1"/>
+    </row>
+    <row r="25" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="W25" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="X25" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y25" s="65">
+        <v>0.65</v>
+      </c>
+      <c r="Z25" s="65">
+        <v>0.79</v>
+      </c>
+      <c r="AA25" s="65">
+        <v>0.63</v>
+      </c>
+      <c r="AB25" s="65">
+        <v>0.98</v>
+      </c>
+      <c r="AC25" s="65">
+        <v>0.22</v>
+      </c>
+      <c r="AD25" s="65">
+        <v>0.46</v>
+      </c>
+      <c r="AE25" s="65">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AF25" s="65">
+        <v>0.37</v>
+      </c>
+      <c r="AG25" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="W26" s="1"/>
+      <c r="AG26" s="1"/>
+    </row>
+    <row r="27" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="W27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="X27" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y27" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD27" s="11">
+        <v>1</v>
+      </c>
+      <c r="AE27" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="12">
+        <v>1</v>
+      </c>
+      <c r="AG27" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C09DA820-1C5A-4CF8-A6F9-7755D3B09D90}">
+  <dimension ref="B2:AI20"/>
+  <sheetViews>
+    <sheetView topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z15" sqref="Z15:AI20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" style="15"/>
+    <col min="2" max="2" width="33.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="10.08203125" style="15" customWidth="1"/>
+    <col min="11" max="11" width="4.83203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" style="15"/>
+    <col min="13" max="13" width="4.9140625" style="15" customWidth="1"/>
+    <col min="14" max="21" width="8.6640625" style="15"/>
+    <col min="22" max="22" width="29.58203125" style="15" customWidth="1"/>
+    <col min="23" max="24" width="8.6640625" style="15"/>
+    <col min="25" max="25" width="33.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="26" max="34" width="10.08203125" style="15" customWidth="1"/>
+    <col min="35" max="35" width="32.83203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="36" max="16384" width="8.6640625" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:35" ht="30.5" x14ac:dyDescent="0.35">
+      <c r="B2" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="2:35" x14ac:dyDescent="0.35">
+      <c r="B3" s="13"/>
+      <c r="C3" s="16">
+        <v>0</v>
+      </c>
+      <c r="D3" s="16">
+        <v>0</v>
+      </c>
+      <c r="E3" s="16">
+        <v>0</v>
+      </c>
+      <c r="F3" s="16">
+        <v>0</v>
+      </c>
+      <c r="G3" s="16">
+        <v>1</v>
+      </c>
+      <c r="H3" s="16">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1</v>
+      </c>
+      <c r="K3" s="14"/>
+    </row>
+    <row r="4" spans="2:35" ht="30.5" x14ac:dyDescent="0.35">
+      <c r="B4" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:35" x14ac:dyDescent="0.35">
+      <c r="B5" s="13"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7">
+        <v>1</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0</v>
+      </c>
+      <c r="K5" s="14"/>
+    </row>
+    <row r="6" spans="2:35" ht="30.5" x14ac:dyDescent="0.35">
+      <c r="B6" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="14">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="2:35" x14ac:dyDescent="0.35">
+      <c r="B7" s="13"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="9">
+        <v>1</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0</v>
+      </c>
+      <c r="F7" s="9">
+        <v>1</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0</v>
+      </c>
+      <c r="I7" s="9">
+        <v>0</v>
+      </c>
+      <c r="J7" s="9">
+        <v>0</v>
+      </c>
+      <c r="K7" s="14"/>
+    </row>
+    <row r="9" spans="2:35" ht="30.5" x14ac:dyDescent="0.35">
+      <c r="M9" s="17">
+        <v>14</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V9" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="2:35" x14ac:dyDescent="0.35">
+      <c r="M10" s="14"/>
+      <c r="N10" s="16">
+        <v>0</v>
+      </c>
+      <c r="O10" s="16">
+        <v>0</v>
+      </c>
+      <c r="P10" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="16">
+        <v>0</v>
+      </c>
+      <c r="R10" s="16">
+        <v>1</v>
+      </c>
+      <c r="S10" s="16">
+        <v>1</v>
+      </c>
+      <c r="T10" s="2">
+        <v>0</v>
+      </c>
+      <c r="U10" s="2">
+        <v>1</v>
+      </c>
+      <c r="V10" s="13"/>
+    </row>
+    <row r="11" spans="2:35" ht="30.5" x14ac:dyDescent="0.35">
+      <c r="M11" s="14">
+        <v>20</v>
+      </c>
+      <c r="N11" s="3"/>
+      <c r="O11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V11" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="2:35" x14ac:dyDescent="0.35">
+      <c r="M12" s="14"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="7">
+        <v>0</v>
+      </c>
+      <c r="P12" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>1</v>
+      </c>
+      <c r="R12" s="7">
+        <v>0</v>
+      </c>
+      <c r="S12" s="7">
+        <v>1</v>
+      </c>
+      <c r="T12" s="7">
+        <v>0</v>
+      </c>
+      <c r="U12" s="7">
+        <v>0</v>
+      </c>
+      <c r="V12" s="13"/>
+    </row>
+    <row r="13" spans="2:35" ht="30.5" x14ac:dyDescent="0.35">
+      <c r="M13" s="14">
+        <v>80</v>
+      </c>
+      <c r="N13" s="3"/>
+      <c r="O13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V13" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="2:35" x14ac:dyDescent="0.35">
+      <c r="M14" s="14"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="9">
+        <v>1</v>
+      </c>
+      <c r="P14" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="9">
+        <v>1</v>
+      </c>
+      <c r="R14" s="9">
+        <v>0</v>
+      </c>
+      <c r="S14" s="9">
+        <v>0</v>
+      </c>
+      <c r="T14" s="9">
+        <v>0</v>
+      </c>
+      <c r="U14" s="9">
+        <v>0</v>
+      </c>
+      <c r="V14" s="13"/>
+    </row>
+    <row r="15" spans="2:35" ht="30.5" x14ac:dyDescent="0.35">
+      <c r="Y15" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH15" s="17">
+        <v>14</v>
+      </c>
+      <c r="AI15" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="2:35" x14ac:dyDescent="0.35">
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="16">
+        <v>1</v>
+      </c>
+      <c r="AE16" s="16">
+        <v>1</v>
+      </c>
+      <c r="AF16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH16" s="14"/>
+      <c r="AI16" s="13"/>
+    </row>
+    <row r="17" spans="25:35" ht="30.5" x14ac:dyDescent="0.35">
+      <c r="Y17" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH17" s="14">
+        <v>20</v>
+      </c>
+      <c r="AI17" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="25:35" x14ac:dyDescent="0.35">
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD18" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="7">
+        <v>1</v>
+      </c>
+      <c r="AF18" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="14"/>
+      <c r="AI18" s="13"/>
+    </row>
+    <row r="19" spans="25:35" ht="30.5" x14ac:dyDescent="0.35">
+      <c r="Y19" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH19" s="14">
+        <v>80</v>
+      </c>
+      <c r="AI19" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="25:35" x14ac:dyDescent="0.35">
+      <c r="Y20" s="13"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="9">
+        <v>1</v>
+      </c>
+      <c r="AB20" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="9">
+        <v>1</v>
+      </c>
+      <c r="AD20" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="14"/>
+      <c r="AI20" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="AI15:AI16"/>
+    <mergeCell ref="AI17:AI18"/>
+    <mergeCell ref="AI19:AI20"/>
+    <mergeCell ref="Y15:Y16"/>
+    <mergeCell ref="AH15:AH16"/>
+    <mergeCell ref="Y17:Y18"/>
+    <mergeCell ref="AH17:AH18"/>
+    <mergeCell ref="Y19:Y20"/>
+    <mergeCell ref="AH19:AH20"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="V11:V12"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="V13:V14"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="K6:K7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40195A41-0732-4FD9-BB8B-78692DB33A80}">
+  <dimension ref="B2:AG33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y24" sqref="Y24:AG33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.25" style="18" customWidth="1"/>
+    <col min="2" max="2" width="16.9140625" style="18" customWidth="1"/>
+    <col min="3" max="10" width="8.6640625" style="18"/>
+    <col min="11" max="11" width="3.58203125" style="4" customWidth="1"/>
+    <col min="12" max="19" width="8.6640625" style="18"/>
+    <col min="20" max="20" width="16.9140625" style="18" customWidth="1"/>
+    <col min="21" max="23" width="8.6640625" style="18"/>
+    <col min="24" max="24" width="32.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="25" max="32" width="10.08203125" style="18" customWidth="1"/>
+    <col min="33" max="33" width="32.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="34" max="16384" width="8.6640625" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="16">
+        <v>0.65</v>
+      </c>
+      <c r="D2" s="16">
+        <v>0.77</v>
+      </c>
+      <c r="E2" s="16">
+        <v>0.44</v>
+      </c>
+      <c r="F2" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="G2" s="16">
+        <v>0.65</v>
+      </c>
+      <c r="H2" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="I2" s="16">
+        <v>0.51</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
+      <c r="F4" s="7">
+        <v>1</v>
+      </c>
+      <c r="G4" s="7">
+        <v>1</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7">
+        <v>1</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="1"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="9">
+        <v>1</v>
+      </c>
+      <c r="D6" s="9">
+        <v>1</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0</v>
+      </c>
+      <c r="F6" s="9">
+        <v>1</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0</v>
+      </c>
+      <c r="I6" s="9">
+        <v>1</v>
+      </c>
+      <c r="J6" s="9">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="1"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B8" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" s="20"/>
+      <c r="K8" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B10" s="21"/>
+      <c r="C10" s="11">
+        <v>0.35</v>
+      </c>
+      <c r="D10" s="11">
+        <v>0.77</v>
+      </c>
+      <c r="E10" s="11">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F10" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="G10" s="11">
+        <v>0.65</v>
+      </c>
+      <c r="H10" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="I10" s="11">
+        <v>0.49</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B11" s="21"/>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="K13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L13" s="16">
+        <v>0.65</v>
+      </c>
+      <c r="M13" s="16">
+        <v>0.77</v>
+      </c>
+      <c r="N13" s="16">
+        <v>0.44</v>
+      </c>
+      <c r="O13" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="P13" s="16">
+        <v>0.65</v>
+      </c>
+      <c r="Q13" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="R13" s="16">
+        <v>0.51</v>
+      </c>
+      <c r="S13" s="2">
+        <v>0.59</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="5"/>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="K15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L15" s="7">
+        <v>0</v>
+      </c>
+      <c r="M15" s="7">
+        <v>1</v>
+      </c>
+      <c r="N15" s="7">
+        <v>1</v>
+      </c>
+      <c r="O15" s="7">
+        <v>1</v>
+      </c>
+      <c r="P15" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="7">
+        <v>0</v>
+      </c>
+      <c r="R15" s="7">
+        <v>0</v>
+      </c>
+      <c r="S15" s="7">
+        <v>1</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K16" s="6"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="1"/>
+    </row>
+    <row r="17" spans="11:33" x14ac:dyDescent="0.35">
+      <c r="K17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L17" s="9">
+        <v>1</v>
+      </c>
+      <c r="M17" s="9">
+        <v>1</v>
+      </c>
+      <c r="N17" s="9">
+        <v>0</v>
+      </c>
+      <c r="O17" s="9">
+        <v>1</v>
+      </c>
+      <c r="P17" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="9">
+        <v>0</v>
+      </c>
+      <c r="R17" s="9">
+        <v>1</v>
+      </c>
+      <c r="S17" s="9">
+        <v>0</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="11:33" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="1"/>
+    </row>
+    <row r="19" spans="11:33" x14ac:dyDescent="0.35">
+      <c r="K19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L19" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="S19" s="20"/>
+      <c r="T19" s="19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="11:33" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="11:33" x14ac:dyDescent="0.35">
+      <c r="K21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L21" s="11">
+        <v>0.35</v>
+      </c>
+      <c r="M21" s="11">
+        <v>0.77</v>
+      </c>
+      <c r="N21" s="11">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="O21" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="P21" s="11">
+        <v>0.65</v>
+      </c>
+      <c r="Q21" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="R21" s="11">
+        <v>0.49</v>
+      </c>
+      <c r="S21" s="12">
+        <v>0.59</v>
+      </c>
+      <c r="T21" s="21"/>
+    </row>
+    <row r="22" spans="11:33" x14ac:dyDescent="0.35">
+      <c r="T22" s="21"/>
+    </row>
+    <row r="24" spans="11:33" x14ac:dyDescent="0.35">
+      <c r="X24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y24" s="16">
+        <v>0.65</v>
+      </c>
+      <c r="Z24" s="16">
+        <v>0.77</v>
+      </c>
+      <c r="AA24" s="16">
+        <v>0.44</v>
+      </c>
+      <c r="AB24" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="AC24" s="16">
+        <v>0.65</v>
+      </c>
+      <c r="AD24" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="AE24" s="16">
+        <v>0.51</v>
+      </c>
+      <c r="AF24" s="2">
+        <v>0.59</v>
+      </c>
+      <c r="AG24" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="11:33" x14ac:dyDescent="0.35">
+      <c r="X25" s="5"/>
+      <c r="Y25" s="6"/>
+      <c r="Z25" s="6"/>
+      <c r="AA25" s="6"/>
+      <c r="AB25" s="6"/>
+      <c r="AC25" s="6"/>
+      <c r="AD25" s="6"/>
+      <c r="AE25" s="6"/>
+      <c r="AF25" s="6"/>
+      <c r="AG25" s="5"/>
+    </row>
+    <row r="26" spans="11:33" x14ac:dyDescent="0.35">
+      <c r="X26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y26" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA26" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB26" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC26" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD26" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="7">
+        <v>1</v>
+      </c>
+      <c r="AG26" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="11:33" x14ac:dyDescent="0.35">
+      <c r="X27" s="1"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="3"/>
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="3"/>
+      <c r="AE27" s="3"/>
+      <c r="AF27" s="3"/>
+      <c r="AG27" s="1"/>
+    </row>
+    <row r="28" spans="11:33" x14ac:dyDescent="0.35">
+      <c r="X28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y28" s="9">
+        <v>1</v>
+      </c>
+      <c r="Z28" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA28" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="9">
+        <v>1</v>
+      </c>
+      <c r="AC28" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="9">
+        <v>1</v>
+      </c>
+      <c r="AF28" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="11:33" x14ac:dyDescent="0.35">
+      <c r="X29" s="1"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3"/>
+      <c r="AB29" s="3"/>
+      <c r="AC29" s="3"/>
+      <c r="AD29" s="3"/>
+      <c r="AE29" s="3"/>
+      <c r="AF29" s="3"/>
+      <c r="AG29" s="1"/>
+    </row>
+    <row r="30" spans="11:33" x14ac:dyDescent="0.35">
+      <c r="X30" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y30" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z30" s="20"/>
+      <c r="AA30" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB30" s="20"/>
+      <c r="AC30" s="20"/>
+      <c r="AD30" s="20"/>
+      <c r="AE30" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF30" s="20"/>
+      <c r="AG30" s="19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="11:33" x14ac:dyDescent="0.35">
+      <c r="X31" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="3"/>
+      <c r="AB31" s="3"/>
+      <c r="AC31" s="3"/>
+      <c r="AD31" s="3"/>
+      <c r="AE31" s="3"/>
+      <c r="AF31" s="3"/>
+      <c r="AG31" s="21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="11:33" x14ac:dyDescent="0.35">
+      <c r="X32" s="21"/>
+      <c r="Y32" s="11">
+        <v>0.35</v>
+      </c>
+      <c r="Z32" s="11">
+        <v>0.77</v>
+      </c>
+      <c r="AA32" s="11">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AB32" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="AC32" s="11">
+        <v>0.65</v>
+      </c>
+      <c r="AD32" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="AE32" s="11">
+        <v>0.49</v>
+      </c>
+      <c r="AF32" s="12">
+        <v>0.59</v>
+      </c>
+      <c r="AG32" s="21"/>
+    </row>
+    <row r="33" spans="24:33" x14ac:dyDescent="0.35">
+      <c r="X33" s="21"/>
+      <c r="AG33" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="T20:T22"/>
+    <mergeCell ref="X31:X33"/>
+    <mergeCell ref="AG31:AG33"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6AE409C-6CD5-4B4E-B77C-E21D8298D374}">
+  <dimension ref="B2:T18"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" style="4"/>
+    <col min="2" max="2" width="17" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.4140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="8.4140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.4140625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="8.4140625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.4140625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="8.4140625" style="4" customWidth="1"/>
+    <col min="9" max="10" width="12.4140625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="3.58203125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="12.4140625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="8.4140625" style="4" customWidth="1"/>
+    <col min="14" max="14" width="12.4140625" style="4" customWidth="1"/>
+    <col min="15" max="15" width="8.4140625" style="4" customWidth="1"/>
+    <col min="16" max="16" width="12.4140625" style="4" customWidth="1"/>
+    <col min="17" max="17" width="8.4140625" style="4" customWidth="1"/>
+    <col min="18" max="19" width="12.4140625" style="4" customWidth="1"/>
+    <col min="20" max="20" width="17" style="4" customWidth="1"/>
+    <col min="21" max="16384" width="8.6640625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="16">
+        <v>0.35</v>
+      </c>
+      <c r="D2" s="16">
+        <v>0.77</v>
+      </c>
+      <c r="E2" s="16">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F2" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="G2" s="16">
+        <v>0.65</v>
+      </c>
+      <c r="H2" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="I2" s="16">
+        <v>0.49</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
+      <c r="F4" s="7">
+        <v>1</v>
+      </c>
+      <c r="G4" s="7">
+        <v>1</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7">
+        <v>1</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="1"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="9">
+        <v>1</v>
+      </c>
+      <c r="D6" s="9">
+        <v>1</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0</v>
+      </c>
+      <c r="F6" s="9">
+        <v>1</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0</v>
+      </c>
+      <c r="I6" s="9">
+        <v>1</v>
+      </c>
+      <c r="J6" s="9">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="2:20" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="B8" s="21"/>
+      <c r="C8" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="12">
+        <v>0.77</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="I8" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B9" s="21"/>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="C10" s="23"/>
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="C11" s="15"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L11" s="16">
+        <v>0.35</v>
+      </c>
+      <c r="M11" s="16">
+        <v>0.77</v>
+      </c>
+      <c r="N11" s="16">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="O11" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="P11" s="16">
+        <v>0.65</v>
+      </c>
+      <c r="Q11" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="R11" s="16">
+        <v>0.49</v>
+      </c>
+      <c r="S11" s="2">
+        <v>0.59</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C12" s="15"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="5"/>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="K13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L13" s="7">
+        <v>0</v>
+      </c>
+      <c r="M13" s="7">
+        <v>1</v>
+      </c>
+      <c r="N13" s="7">
+        <v>1</v>
+      </c>
+      <c r="O13" s="7">
+        <v>1</v>
+      </c>
+      <c r="P13" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>0</v>
+      </c>
+      <c r="R13" s="7">
+        <v>0</v>
+      </c>
+      <c r="S13" s="7">
+        <v>1</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="1"/>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="K15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L15" s="9">
+        <v>1</v>
+      </c>
+      <c r="M15" s="9">
+        <v>1</v>
+      </c>
+      <c r="N15" s="9">
+        <v>0</v>
+      </c>
+      <c r="O15" s="9">
+        <v>1</v>
+      </c>
+      <c r="P15" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="9">
+        <v>0</v>
+      </c>
+      <c r="R15" s="9">
+        <v>1</v>
+      </c>
+      <c r="S15" s="9">
+        <v>0</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K16" s="6"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="11:20" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="K17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L17" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="M17" s="12">
+        <v>0.77</v>
+      </c>
+      <c r="N17" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="O17" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="P17" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q17" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="R17" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="S17" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="T17" s="21"/>
+    </row>
+    <row r="18" spans="11:20" x14ac:dyDescent="0.35">
+      <c r="T18" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="T16:T18"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3524CA82-DAE9-484A-993E-7F29EB94C429}">
+  <dimension ref="B3:T14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" style="27"/>
+    <col min="2" max="2" width="4.9140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.83203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.58203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.4140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.83203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5" style="27" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.08203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.9140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.5" style="27" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.58203125" style="27" customWidth="1"/>
+    <col min="15" max="17" width="7.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.9140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.6640625" style="27"/>
+    <col min="20" max="20" width="3.58203125" style="27" customWidth="1"/>
+    <col min="21" max="16384" width="8.6640625" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:20" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="26"/>
+    </row>
+    <row r="4" spans="2:20" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="28">
+        <v>2010</v>
+      </c>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28">
+        <v>2011</v>
+      </c>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="J5" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="K5" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="L5" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="M5" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" s="32"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" spans="2:20" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="35"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="L7" s="32"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" spans="2:20" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="2:20" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N9" s="6"/>
+      <c r="P9" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39"/>
+      <c r="S9" s="39"/>
+    </row>
+    <row r="10" spans="2:20" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N10" s="3"/>
+      <c r="P10" s="40">
+        <v>2010</v>
+      </c>
+      <c r="Q10" s="41">
+        <v>2011</v>
+      </c>
+      <c r="R10" s="41"/>
+      <c r="S10" s="41"/>
+      <c r="T10" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P11" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q11" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="R11" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="S11" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="P12" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q12" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="R12" s="45"/>
+      <c r="S12" s="45"/>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="P13" s="45"/>
+      <c r="Q13" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="R13" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="S13" s="45"/>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="P14" s="45"/>
+      <c r="Q14" s="45"/>
+      <c r="R14" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="S14" s="44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="K7:M7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F08A5884-88A6-430F-9989-E31867C88D1C}">
+  <dimension ref="B2:R14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" style="47"/>
+    <col min="2" max="13" width="7.5" style="47" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.6640625" style="47"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:18" ht="23" x14ac:dyDescent="0.35">
+      <c r="B2" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="26"/>
+    </row>
+    <row r="3" spans="2:18" ht="46" x14ac:dyDescent="0.35">
+      <c r="B3" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="I3" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="J3" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="K3" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="L3" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="M3" s="29" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" ht="26" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" s="32"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+    </row>
+    <row r="5" spans="2:18" ht="26" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="35"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="L5" s="32"/>
+      <c r="M5" s="33"/>
+    </row>
+    <row r="6" spans="2:18" ht="26" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:18" ht="26" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="O10" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="39"/>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="O11" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="P11" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q11" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="R11" s="50" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="O12" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="P12" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q12" s="45"/>
+      <c r="R12" s="45"/>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="O13" s="45"/>
+      <c r="P13" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q13" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="R13" s="45"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="O14" s="45"/>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="R14" s="44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="O10:R10"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{106EE4C8-41DD-446B-9628-23092B02479D}">
+  <dimension ref="B3:R18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="16384" width="8.6640625" style="51"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B3" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B4" s="45"/>
+      <c r="C4" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="45"/>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B6" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="45"/>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B7" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="45"/>
+      <c r="Q7" s="45"/>
+      <c r="R7" s="45"/>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="45"/>
+      <c r="Q8" s="45"/>
+      <c r="R8" s="45"/>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="45"/>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="45"/>
+      <c r="P10" s="45"/>
+      <c r="Q10" s="45"/>
+      <c r="R10" s="45"/>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="45"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="45"/>
+      <c r="Q11" s="45"/>
+      <c r="R11" s="45"/>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="45"/>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="45"/>
+      <c r="R12" s="45"/>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="45"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="45"/>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="45"/>
+      <c r="R14" s="45"/>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="N15" s="54"/>
+      <c r="O15" s="55"/>
+      <c r="P15" s="45"/>
+      <c r="Q15" s="45"/>
+      <c r="R15" s="45"/>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="59"/>
+      <c r="N16" s="60"/>
+      <c r="O16" s="60"/>
+      <c r="P16" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q16" s="54"/>
+      <c r="R16" s="55"/>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="H17" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="I17" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="J17" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="K17" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="L17" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="M17" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="N17" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="O17" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="P17" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q17" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="R17" s="50" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="61" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="62"/>
+      <c r="M18" s="62"/>
+      <c r="N18" s="62"/>
+      <c r="O18" s="62"/>
+      <c r="P18" s="62"/>
+      <c r="Q18" s="62"/>
+      <c r="R18" s="63"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="J16:O16"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="G18:R18"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/draw.xlsx
+++ b/draw.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\thesis\thesis\latex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93407C5A-27F6-48E9-8E24-971139F3F4F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D608A893-2915-4783-A875-82204403B6C4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="11830" activeTab="4" xr2:uid="{4F38E138-DC1E-44E5-B0FB-1EE7C4DC78B3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="11830" activeTab="8" xr2:uid="{4F38E138-DC1E-44E5-B0FB-1EE7C4DC78B3}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,10 @@
     <sheet name="QN gate" sheetId="5" r:id="rId5"/>
     <sheet name="delta" sheetId="6" r:id="rId6"/>
     <sheet name="sliding window" sheetId="7" r:id="rId7"/>
-    <sheet name="test1" sheetId="8" r:id="rId8"/>
-    <sheet name="test2" sheetId="9" r:id="rId9"/>
+    <sheet name="sliding window (2)" sheetId="11" r:id="rId8"/>
+    <sheet name="工作表4" sheetId="12" r:id="rId9"/>
+    <sheet name="test1" sheetId="8" r:id="rId10"/>
+    <sheet name="test2" sheetId="9" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="93">
   <si>
     <t>SMA 5</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -954,6 +956,34 @@
     <t>overbought</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>H*</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>YYY2YH</t>
+  </si>
+  <si>
+    <t>2012-01-03_2013-06-28</t>
+  </si>
+  <si>
+    <t>2013-07-01_2014-12-31</t>
+  </si>
+  <si>
+    <t>2015-01-02_2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-07-01_2017-12-29</t>
+  </si>
+  <si>
+    <t>2018-01-02_2019-06-28</t>
+  </si>
+  <si>
+    <t>2019-07-01_2020-12-31</t>
+  </si>
+  <si>
+    <t>2021-01-04_2021-12-31</t>
+  </si>
 </sst>
 </file>
 
@@ -962,7 +992,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1088,8 +1118,14 @@
       <name val="Wingdings"/>
       <charset val="2"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF202122"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1144,8 +1180,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8F9FA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1231,6 +1273,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFA2A9B1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFA2A9B1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFA2A9B1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFA2A9B1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1240,7 +1328,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1292,9 +1380,6 @@
     <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1304,23 +1389,11 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -1334,15 +1407,6 @@
     <xf numFmtId="49" fontId="15" fillId="8" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="9" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="17" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1353,15 +1417,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="8" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1397,6 +1452,66 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="8" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="9" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="8" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="16" fillId="8" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1408,12 +1523,6 @@
     </xf>
     <xf numFmtId="49" fontId="16" fillId="9" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="16" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1433,11 +1542,53 @@
     <xf numFmtId="49" fontId="16" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="9" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="8" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="9" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4885,6 +5036,567 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F08A5884-88A6-430F-9989-E31867C88D1C}">
+  <dimension ref="B2:R14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" style="36"/>
+    <col min="2" max="13" width="7.5" style="36" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.6640625" style="36"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:18" ht="23" x14ac:dyDescent="0.35">
+      <c r="B2" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="53"/>
+    </row>
+    <row r="3" spans="2:18" ht="46" x14ac:dyDescent="0.35">
+      <c r="B3" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="K3" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="L3" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="M3" s="24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" ht="26" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" s="57"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+    </row>
+    <row r="5" spans="2:18" ht="26" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="27"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="L5" s="57"/>
+      <c r="M5" s="58"/>
+    </row>
+    <row r="6" spans="2:18" ht="26" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:18" ht="26" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="O10" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="49"/>
+      <c r="R10" s="49"/>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="O11" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="P11" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q11" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="R11" s="39" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="O12" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="P12" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q12" s="34"/>
+      <c r="R12" s="34"/>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="O13" s="34"/>
+      <c r="P13" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q13" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="R13" s="34"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="O14" s="34"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="R14" s="33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="O10:R10"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="K5:M5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{106EE4C8-41DD-446B-9628-23092B02479D}">
+  <dimension ref="B3:R18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="16384" width="8.6640625" style="40"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B3" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B4" s="34"/>
+      <c r="C4" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B6" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B7" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="34"/>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="34"/>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="34"/>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34"/>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="34"/>
+      <c r="R12" s="34"/>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="34"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="34"/>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="62" t="s">
+        <v>61</v>
+      </c>
+      <c r="N15" s="63"/>
+      <c r="O15" s="64"/>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="34"/>
+      <c r="R15" s="34"/>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="K16" s="61"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="66"/>
+      <c r="N16" s="67"/>
+      <c r="O16" s="67"/>
+      <c r="P16" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q16" s="63"/>
+      <c r="R16" s="64"/>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="H17" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="I17" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="J17" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="K17" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="L17" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="M17" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="N17" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="O17" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="P17" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q17" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="R17" s="39" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="68" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18" s="69"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="69"/>
+      <c r="M18" s="69"/>
+      <c r="N18" s="69"/>
+      <c r="O18" s="69"/>
+      <c r="P18" s="69"/>
+      <c r="Q18" s="69"/>
+      <c r="R18" s="70"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="G18:R18"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="J16:O16"/>
+    <mergeCell ref="P16:R16"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D743717B-B531-4DBE-A1F3-1D8371EEDE38}">
   <dimension ref="B2:AH20"/>
@@ -5063,7 +5775,7 @@
       <c r="X18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="Y18" s="64" t="s">
+      <c r="Y18" s="43" t="s">
         <v>80</v>
       </c>
       <c r="Z18" s="2">
@@ -5111,7 +5823,7 @@
       <c r="X20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="Y20" s="64" t="s">
+      <c r="Y20" s="43" t="s">
         <v>80</v>
       </c>
       <c r="Z20" s="7">
@@ -5154,7 +5866,7 @@
   <dimension ref="B1:AG27"/>
   <sheetViews>
     <sheetView topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="X21" sqref="X21:AG27"/>
+      <selection activeCell="X21" sqref="X21:X27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.35"/>
@@ -5491,7 +6203,7 @@
       <c r="W21" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="X21" s="64" t="s">
+      <c r="X21" s="43" t="s">
         <v>80</v>
       </c>
       <c r="Y21" s="2">
@@ -5523,7 +6235,7 @@
       </c>
     </row>
     <row r="22" spans="2:33" x14ac:dyDescent="0.35">
-      <c r="V22" s="64" t="s">
+      <c r="V22" s="43" t="s">
         <v>80</v>
       </c>
       <c r="W22" s="5"/>
@@ -5542,7 +6254,7 @@
       <c r="W23" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="X23" s="64" t="s">
+      <c r="X23" s="43" t="s">
         <v>80</v>
       </c>
       <c r="Y23" s="7">
@@ -5574,7 +6286,7 @@
       </c>
     </row>
     <row r="24" spans="2:33" x14ac:dyDescent="0.35">
-      <c r="V24" s="64" t="s">
+      <c r="V24" s="43" t="s">
         <v>80</v>
       </c>
       <c r="W24" s="1"/>
@@ -5584,31 +6296,31 @@
       <c r="W25" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="X25" s="64" t="s">
+      <c r="X25" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="Y25" s="65">
+      <c r="Y25" s="44">
         <v>0.65</v>
       </c>
-      <c r="Z25" s="65">
+      <c r="Z25" s="44">
         <v>0.79</v>
       </c>
-      <c r="AA25" s="65">
+      <c r="AA25" s="44">
         <v>0.63</v>
       </c>
-      <c r="AB25" s="65">
+      <c r="AB25" s="44">
         <v>0.98</v>
       </c>
-      <c r="AC25" s="65">
+      <c r="AC25" s="44">
         <v>0.22</v>
       </c>
-      <c r="AD25" s="65">
+      <c r="AD25" s="44">
         <v>0.46</v>
       </c>
-      <c r="AE25" s="65">
+      <c r="AE25" s="44">
         <v>0.55000000000000004</v>
       </c>
-      <c r="AF25" s="65">
+      <c r="AF25" s="44">
         <v>0.37</v>
       </c>
       <c r="AG25" s="1" t="s">
@@ -5623,7 +6335,7 @@
       <c r="W27" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="X27" s="64" t="s">
+      <c r="X27" s="43" t="s">
         <v>80</v>
       </c>
       <c r="Y27" s="11">
@@ -5667,7 +6379,7 @@
   <dimension ref="B2:AI20"/>
   <sheetViews>
     <sheetView topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z15" sqref="Z15:AI20"/>
+      <selection activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.35"/>
@@ -5688,7 +6400,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:35" ht="30.5" x14ac:dyDescent="0.35">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="45" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -5715,12 +6427,12 @@
       <c r="J2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="17">
+      <c r="K2" s="46">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="2:35" x14ac:dyDescent="0.35">
-      <c r="B3" s="13"/>
+      <c r="B3" s="45"/>
       <c r="C3" s="16">
         <v>0</v>
       </c>
@@ -5745,10 +6457,10 @@
       <c r="J3" s="2">
         <v>1</v>
       </c>
-      <c r="K3" s="14"/>
+      <c r="K3" s="47"/>
     </row>
     <row r="4" spans="2:35" ht="30.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="45" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="3"/>
@@ -5773,12 +6485,12 @@
       <c r="J4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="14">
+      <c r="K4" s="47">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="2:35" x14ac:dyDescent="0.35">
-      <c r="B5" s="13"/>
+      <c r="B5" s="45"/>
       <c r="C5" s="3"/>
       <c r="D5" s="7">
         <v>0</v>
@@ -5801,10 +6513,10 @@
       <c r="J5" s="7">
         <v>0</v>
       </c>
-      <c r="K5" s="14"/>
+      <c r="K5" s="47"/>
     </row>
     <row r="6" spans="2:35" ht="30.5" x14ac:dyDescent="0.35">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="45" t="s">
         <v>28</v>
       </c>
       <c r="C6" s="3"/>
@@ -5829,12 +6541,12 @@
       <c r="J6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K6" s="47">
         <v>80</v>
       </c>
     </row>
     <row r="7" spans="2:35" x14ac:dyDescent="0.35">
-      <c r="B7" s="13"/>
+      <c r="B7" s="45"/>
       <c r="C7" s="3"/>
       <c r="D7" s="9">
         <v>1</v>
@@ -5857,10 +6569,10 @@
       <c r="J7" s="9">
         <v>0</v>
       </c>
-      <c r="K7" s="14"/>
+      <c r="K7" s="47"/>
     </row>
     <row r="9" spans="2:35" ht="30.5" x14ac:dyDescent="0.35">
-      <c r="M9" s="17">
+      <c r="M9" s="46">
         <v>14</v>
       </c>
       <c r="N9" s="1" t="s">
@@ -5887,12 +6599,12 @@
       <c r="U9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V9" s="13" t="s">
+      <c r="V9" s="45" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="2:35" x14ac:dyDescent="0.35">
-      <c r="M10" s="14"/>
+      <c r="M10" s="47"/>
       <c r="N10" s="16">
         <v>0</v>
       </c>
@@ -5917,10 +6629,10 @@
       <c r="U10" s="2">
         <v>1</v>
       </c>
-      <c r="V10" s="13"/>
+      <c r="V10" s="45"/>
     </row>
     <row r="11" spans="2:35" ht="30.5" x14ac:dyDescent="0.35">
-      <c r="M11" s="14">
+      <c r="M11" s="47">
         <v>20</v>
       </c>
       <c r="N11" s="3"/>
@@ -5945,12 +6657,12 @@
       <c r="U11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="V11" s="13" t="s">
+      <c r="V11" s="45" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="2:35" x14ac:dyDescent="0.35">
-      <c r="M12" s="14"/>
+      <c r="M12" s="47"/>
       <c r="N12" s="3"/>
       <c r="O12" s="7">
         <v>0</v>
@@ -5973,10 +6685,10 @@
       <c r="U12" s="7">
         <v>0</v>
       </c>
-      <c r="V12" s="13"/>
+      <c r="V12" s="45"/>
     </row>
     <row r="13" spans="2:35" ht="30.5" x14ac:dyDescent="0.35">
-      <c r="M13" s="14">
+      <c r="M13" s="47">
         <v>80</v>
       </c>
       <c r="N13" s="3"/>
@@ -6001,12 +6713,12 @@
       <c r="U13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V13" s="13" t="s">
+      <c r="V13" s="45" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="14" spans="2:35" x14ac:dyDescent="0.35">
-      <c r="M14" s="14"/>
+      <c r="M14" s="47"/>
       <c r="N14" s="3"/>
       <c r="O14" s="9">
         <v>1</v>
@@ -6029,10 +6741,10 @@
       <c r="U14" s="9">
         <v>0</v>
       </c>
-      <c r="V14" s="13"/>
+      <c r="V14" s="45"/>
     </row>
     <row r="15" spans="2:35" ht="30.5" x14ac:dyDescent="0.35">
-      <c r="Y15" s="13" t="s">
+      <c r="Y15" s="45" t="s">
         <v>11</v>
       </c>
       <c r="Z15" s="1" t="s">
@@ -6059,15 +6771,15 @@
       <c r="AG15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AH15" s="17">
+      <c r="AH15" s="46">
         <v>14</v>
       </c>
-      <c r="AI15" s="13" t="s">
+      <c r="AI15" s="45" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="2:35" x14ac:dyDescent="0.35">
-      <c r="Y16" s="13"/>
+      <c r="Y16" s="45"/>
       <c r="Z16" s="16">
         <v>0</v>
       </c>
@@ -6092,11 +6804,11 @@
       <c r="AG16" s="2">
         <v>1</v>
       </c>
-      <c r="AH16" s="14"/>
-      <c r="AI16" s="13"/>
+      <c r="AH16" s="47"/>
+      <c r="AI16" s="45"/>
     </row>
     <row r="17" spans="25:35" ht="30.5" x14ac:dyDescent="0.35">
-      <c r="Y17" s="13" t="s">
+      <c r="Y17" s="45" t="s">
         <v>82</v>
       </c>
       <c r="Z17" s="3"/>
@@ -6121,15 +6833,15 @@
       <c r="AG17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AH17" s="14">
+      <c r="AH17" s="47">
         <v>20</v>
       </c>
-      <c r="AI17" s="13" t="s">
+      <c r="AI17" s="45" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="18" spans="25:35" x14ac:dyDescent="0.35">
-      <c r="Y18" s="13"/>
+      <c r="Y18" s="45"/>
       <c r="Z18" s="3"/>
       <c r="AA18" s="7">
         <v>0</v>
@@ -6152,11 +6864,11 @@
       <c r="AG18" s="7">
         <v>0</v>
       </c>
-      <c r="AH18" s="14"/>
-      <c r="AI18" s="13"/>
+      <c r="AH18" s="47"/>
+      <c r="AI18" s="45"/>
     </row>
     <row r="19" spans="25:35" ht="30.5" x14ac:dyDescent="0.35">
-      <c r="Y19" s="13" t="s">
+      <c r="Y19" s="45" t="s">
         <v>83</v>
       </c>
       <c r="Z19" s="3"/>
@@ -6181,15 +6893,15 @@
       <c r="AG19" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AH19" s="14">
+      <c r="AH19" s="47">
         <v>80</v>
       </c>
-      <c r="AI19" s="13" t="s">
+      <c r="AI19" s="45" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="20" spans="25:35" x14ac:dyDescent="0.35">
-      <c r="Y20" s="13"/>
+      <c r="Y20" s="45"/>
       <c r="Z20" s="3"/>
       <c r="AA20" s="9">
         <v>1</v>
@@ -6212,11 +6924,23 @@
       <c r="AG20" s="9">
         <v>0</v>
       </c>
-      <c r="AH20" s="14"/>
-      <c r="AI20" s="13"/>
+      <c r="AH20" s="47"/>
+      <c r="AI20" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="V11:V12"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="V13:V14"/>
     <mergeCell ref="AI15:AI16"/>
     <mergeCell ref="AI17:AI18"/>
     <mergeCell ref="AI19:AI20"/>
@@ -6226,18 +6950,6 @@
     <mergeCell ref="AH17:AH18"/>
     <mergeCell ref="Y19:Y20"/>
     <mergeCell ref="AH19:AH20"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="V11:V12"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="V13:V14"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="K6:K7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6249,23 +6961,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40195A41-0732-4FD9-BB8B-78692DB33A80}">
   <dimension ref="B2:AG33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y24" sqref="Y24:AG33"/>
+    <sheetView topLeftCell="F6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W25" sqref="W25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.25" style="18" customWidth="1"/>
-    <col min="2" max="2" width="16.9140625" style="18" customWidth="1"/>
-    <col min="3" max="10" width="8.6640625" style="18"/>
+    <col min="1" max="1" width="9.25" style="17" customWidth="1"/>
+    <col min="2" max="2" width="16.9140625" style="17" customWidth="1"/>
+    <col min="3" max="10" width="8.6640625" style="17"/>
     <col min="11" max="11" width="3.58203125" style="4" customWidth="1"/>
-    <col min="12" max="19" width="8.6640625" style="18"/>
-    <col min="20" max="20" width="16.9140625" style="18" customWidth="1"/>
-    <col min="21" max="23" width="8.6640625" style="18"/>
-    <col min="24" max="24" width="32.6640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="25" max="32" width="10.08203125" style="18" customWidth="1"/>
-    <col min="33" max="33" width="32.6640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="34" max="16384" width="8.6640625" style="18"/>
+    <col min="12" max="19" width="8.6640625" style="17"/>
+    <col min="20" max="20" width="16.9140625" style="17" customWidth="1"/>
+    <col min="21" max="23" width="8.6640625" style="17"/>
+    <col min="24" max="24" width="32.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="25" max="32" width="10.08203125" style="17" customWidth="1"/>
+    <col min="33" max="33" width="32.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="34" max="16384" width="8.6640625" style="17"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:20" x14ac:dyDescent="0.35">
@@ -6400,29 +7112,29 @@
       <c r="K7" s="3"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20" t="s">
+      <c r="D8" s="19"/>
+      <c r="E8" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20" t="s">
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="J8" s="20"/>
+      <c r="J8" s="19"/>
       <c r="K8" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="2:20" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="48" t="s">
         <v>41</v>
       </c>
       <c r="C9" s="3"/>
@@ -6435,7 +7147,7 @@
       <c r="J9" s="3"/>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B10" s="21"/>
+      <c r="B10" s="48"/>
       <c r="C10" s="11">
         <v>0.35</v>
       </c>
@@ -6465,7 +7177,7 @@
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B11" s="21"/>
+      <c r="B11" s="48"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.35">
       <c r="K13" s="3" t="s">
@@ -6602,21 +7314,21 @@
       <c r="K19" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L19" s="20" t="s">
+      <c r="L19" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20" t="s">
+      <c r="M19" s="19"/>
+      <c r="N19" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="O19" s="20"/>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="20" t="s">
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="S19" s="20"/>
-      <c r="T19" s="19" t="s">
+      <c r="S19" s="19"/>
+      <c r="T19" s="18" t="s">
         <v>39</v>
       </c>
     </row>
@@ -6629,7 +7341,7 @@
       <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
-      <c r="T20" s="21" t="s">
+      <c r="T20" s="48" t="s">
         <v>41</v>
       </c>
     </row>
@@ -6661,10 +7373,10 @@
       <c r="S21" s="12">
         <v>0.59</v>
       </c>
-      <c r="T21" s="21"/>
+      <c r="T21" s="48"/>
     </row>
     <row r="22" spans="11:33" x14ac:dyDescent="0.35">
-      <c r="T22" s="21"/>
+      <c r="T22" s="48"/>
     </row>
     <row r="24" spans="11:33" x14ac:dyDescent="0.35">
       <c r="X24" s="1" t="s">
@@ -6799,29 +7511,29 @@
       <c r="AG29" s="1"/>
     </row>
     <row r="30" spans="11:33" x14ac:dyDescent="0.35">
-      <c r="X30" s="19" t="s">
+      <c r="X30" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="Y30" s="20" t="s">
+      <c r="Y30" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="Z30" s="20"/>
-      <c r="AA30" s="20" t="s">
+      <c r="Z30" s="19"/>
+      <c r="AA30" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="AB30" s="20"/>
-      <c r="AC30" s="20"/>
-      <c r="AD30" s="20"/>
-      <c r="AE30" s="20" t="s">
+      <c r="AB30" s="19"/>
+      <c r="AC30" s="19"/>
+      <c r="AD30" s="19"/>
+      <c r="AE30" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="AF30" s="20"/>
-      <c r="AG30" s="19" t="s">
+      <c r="AF30" s="19"/>
+      <c r="AG30" s="18" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="31" spans="11:33" x14ac:dyDescent="0.35">
-      <c r="X31" s="21" t="s">
+      <c r="X31" s="48" t="s">
         <v>41</v>
       </c>
       <c r="Y31" s="3"/>
@@ -6832,12 +7544,12 @@
       <c r="AD31" s="3"/>
       <c r="AE31" s="3"/>
       <c r="AF31" s="3"/>
-      <c r="AG31" s="21" t="s">
+      <c r="AG31" s="48" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="32" spans="11:33" x14ac:dyDescent="0.35">
-      <c r="X32" s="21"/>
+      <c r="X32" s="48"/>
       <c r="Y32" s="11">
         <v>0.35</v>
       </c>
@@ -6862,11 +7574,11 @@
       <c r="AF32" s="12">
         <v>0.59</v>
       </c>
-      <c r="AG32" s="21"/>
+      <c r="AG32" s="48"/>
     </row>
     <row r="33" spans="24:33" x14ac:dyDescent="0.35">
-      <c r="X33" s="21"/>
-      <c r="AG33" s="21"/>
+      <c r="X33" s="48"/>
+      <c r="AG33" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6877,16 +7589,17 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6AE409C-6CD5-4B4E-B77C-E21D8298D374}">
-  <dimension ref="B2:T18"/>
+  <dimension ref="B2:V18"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:G4"/>
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11:M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.35"/>
@@ -6901,18 +7614,14 @@
     <col min="8" max="8" width="8.4140625" style="4" customWidth="1"/>
     <col min="9" max="10" width="12.4140625" style="4" customWidth="1"/>
     <col min="11" max="11" width="3.58203125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="12.4140625" style="4" customWidth="1"/>
-    <col min="13" max="13" width="8.4140625" style="4" customWidth="1"/>
-    <col min="14" max="14" width="12.4140625" style="4" customWidth="1"/>
-    <col min="15" max="15" width="8.4140625" style="4" customWidth="1"/>
-    <col min="16" max="16" width="12.4140625" style="4" customWidth="1"/>
-    <col min="17" max="17" width="8.4140625" style="4" customWidth="1"/>
-    <col min="18" max="19" width="12.4140625" style="4" customWidth="1"/>
-    <col min="20" max="20" width="17" style="4" customWidth="1"/>
-    <col min="21" max="16384" width="8.6640625" style="4"/>
+    <col min="12" max="12" width="13.83203125" style="4" customWidth="1"/>
+    <col min="13" max="13" width="5.9140625" style="4" customWidth="1"/>
+    <col min="14" max="21" width="13.83203125" style="4" customWidth="1"/>
+    <col min="22" max="22" width="32.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="8.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
@@ -6944,7 +7653,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:20" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -6956,7 +7665,7 @@
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>37</v>
       </c>
@@ -6988,7 +7697,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:20" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -6999,7 +7708,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>38</v>
       </c>
@@ -7031,8 +7740,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:20" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="21" t="s">
+    <row r="7" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="48" t="s">
         <v>41</v>
       </c>
       <c r="C7" s="3"/>
@@ -7045,9 +7754,9 @@
       <c r="J7" s="3"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="2:20" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="B8" s="21"/>
-      <c r="C8" s="22" t="s">
+    <row r="8" spans="2:22" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="B8" s="48"/>
+      <c r="C8" s="20" t="s">
         <v>42</v>
       </c>
       <c r="D8" s="12">
@@ -7065,7 +7774,7 @@
       <c r="H8" s="11">
         <v>0.5</v>
       </c>
-      <c r="I8" s="22" t="s">
+      <c r="I8" s="20" t="s">
         <v>45</v>
       </c>
       <c r="J8" s="11" t="s">
@@ -7075,14 +7784,38 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B9" s="21"/>
-    </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="C10" s="23"/>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B9" s="48"/>
+    </row>
+    <row r="10" spans="2:22" ht="30.5" x14ac:dyDescent="0.35">
+      <c r="C10" s="21"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="O10" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="P10" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q10" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="R10" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="S10" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="T10" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="U10" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.35">
       <c r="C11" s="15"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -7091,62 +7824,56 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-      <c r="K11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L11" s="16">
+      <c r="M11" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="N11" s="16">
         <v>0.35</v>
       </c>
-      <c r="M11" s="16">
+      <c r="O11" s="16">
         <v>0.77</v>
       </c>
-      <c r="N11" s="16">
+      <c r="P11" s="16">
         <v>0.56000000000000005</v>
-      </c>
-      <c r="O11" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="P11" s="16">
-        <v>0.65</v>
       </c>
       <c r="Q11" s="16">
         <v>0.5</v>
       </c>
       <c r="R11" s="16">
+        <v>0.65</v>
+      </c>
+      <c r="S11" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="T11" s="16">
         <v>0.49</v>
       </c>
-      <c r="S11" s="2">
+      <c r="U11" s="2">
         <v>0.59</v>
       </c>
-      <c r="T11" s="1" t="s">
+      <c r="V11" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="2:20" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C12" s="15"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
+      <c r="M12" s="14"/>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
-      <c r="T12" s="5"/>
-    </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="K13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L13" s="7">
-        <v>0</v>
-      </c>
-      <c r="M13" s="7">
-        <v>1</v>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="5"/>
+    </row>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="M13" s="43" t="s">
+        <v>80</v>
       </c>
       <c r="N13" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7">
         <v>1</v>
@@ -7155,41 +7882,42 @@
         <v>1</v>
       </c>
       <c r="Q13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S13" s="7">
+        <v>0</v>
+      </c>
+      <c r="T13" s="7">
+        <v>0</v>
+      </c>
+      <c r="U13" s="7">
         <v>1</v>
       </c>
-      <c r="T13" s="1" t="s">
+      <c r="V13" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="2:20" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
+    <row r="14" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M14" s="14"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
-      <c r="T14" s="1"/>
-    </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="K15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L15" s="9">
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="1"/>
+    </row>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="M15" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="N15" s="9">
         <v>1</v>
-      </c>
-      <c r="M15" s="9">
-        <v>1</v>
-      </c>
-      <c r="N15" s="9">
-        <v>0</v>
       </c>
       <c r="O15" s="9">
         <v>1</v>
@@ -7198,69 +7926,73 @@
         <v>0</v>
       </c>
       <c r="Q15" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" s="9">
+        <v>0</v>
+      </c>
+      <c r="S15" s="9">
+        <v>0</v>
+      </c>
+      <c r="T15" s="9">
         <v>1</v>
       </c>
-      <c r="S15" s="9">
-        <v>0</v>
-      </c>
-      <c r="T15" s="1" t="s">
+      <c r="U15" s="9">
+        <v>0</v>
+      </c>
+      <c r="V15" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="2:20" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K16" s="6"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
+    <row r="16" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M16" s="14"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-      <c r="T16" s="21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="11:20" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="K17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L17" s="22" t="s">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="13:22" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="M17" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="N17" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="M17" s="12">
+      <c r="O17" s="12">
         <v>0.77</v>
       </c>
-      <c r="N17" s="11" t="s">
+      <c r="P17" s="11" t="s">
         <v>43</v>
-      </c>
-      <c r="O17" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="P17" s="11" t="s">
-        <v>44</v>
       </c>
       <c r="Q17" s="11">
         <v>0.5</v>
       </c>
-      <c r="R17" s="22" t="s">
+      <c r="R17" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="S17" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="T17" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="S17" s="11" t="s">
+      <c r="U17" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="T17" s="21"/>
-    </row>
-    <row r="18" spans="11:20" x14ac:dyDescent="0.35">
-      <c r="T18" s="21"/>
+      <c r="V17" s="71" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="13:22" x14ac:dyDescent="0.35">
+      <c r="T18" s="71"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="B7:B9"/>
-    <mergeCell ref="T16:T18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7270,107 +8002,110 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3524CA82-DAE9-484A-993E-7F29EB94C429}">
-  <dimension ref="B3:T14"/>
+  <dimension ref="B3:BD39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:G4"/>
+    <sheetView topLeftCell="AM21" workbookViewId="0">
+      <selection activeCell="AS35" sqref="AS35:BD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="27"/>
-    <col min="2" max="2" width="4.9140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.83203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.58203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.33203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.4140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.83203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.5" style="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.08203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.9140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.5" style="27" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="3.58203125" style="27" customWidth="1"/>
-    <col min="15" max="17" width="7.75" style="27" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.9140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.6640625" style="27"/>
-    <col min="20" max="20" width="3.58203125" style="27" customWidth="1"/>
-    <col min="21" max="16384" width="8.6640625" style="27"/>
+    <col min="1" max="1" width="8.6640625" style="22"/>
+    <col min="2" max="2" width="4.9140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.83203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.58203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.33203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.4140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.83203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5" style="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.08203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.9140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.5" style="22" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.58203125" style="22" customWidth="1"/>
+    <col min="15" max="17" width="7.75" style="22" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.9140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.6640625" style="22"/>
+    <col min="20" max="20" width="3.58203125" style="22" customWidth="1"/>
+    <col min="21" max="37" width="8.6640625" style="22"/>
+    <col min="38" max="38" width="8.6640625" style="22" customWidth="1"/>
+    <col min="39" max="42" width="14.75" style="22" customWidth="1"/>
+    <col min="43" max="16384" width="8.6640625" style="22"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:20" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="26"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="53"/>
     </row>
     <row r="4" spans="2:20" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="28">
+      <c r="B4" s="54">
         <v>2010</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28">
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54">
         <v>2011</v>
       </c>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
       <c r="N4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:20" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="G5" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="H5" s="29" t="s">
+      <c r="H5" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="I5" s="29" t="s">
+      <c r="I5" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="J5" s="29" t="s">
+      <c r="J5" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="K5" s="29" t="s">
+      <c r="K5" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="L5" s="29" t="s">
+      <c r="L5" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="M5" s="29" t="s">
+      <c r="M5" s="24" t="s">
         <v>59</v>
       </c>
       <c r="N5" s="3" t="s">
@@ -7378,41 +8113,41 @@
       </c>
     </row>
     <row r="6" spans="2:20" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="31" t="s">
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="I6" s="32"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
       <c r="N6" s="3"/>
     </row>
     <row r="7" spans="2:20" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="35"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="37" t="s">
+      <c r="B7" s="27"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="31" t="s">
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="L7" s="32"/>
-      <c r="M7" s="33"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="58"/>
       <c r="N7" s="3"/>
     </row>
     <row r="8" spans="2:20" ht="25.5" x14ac:dyDescent="0.35">
@@ -7420,38 +8155,38 @@
     </row>
     <row r="9" spans="2:20" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="N9" s="6"/>
-      <c r="P9" s="39" t="s">
+      <c r="P9" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="39"/>
-      <c r="S9" s="39"/>
+      <c r="Q9" s="49"/>
+      <c r="R9" s="49"/>
+      <c r="S9" s="49"/>
     </row>
     <row r="10" spans="2:20" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="N10" s="3"/>
-      <c r="P10" s="40">
+      <c r="P10" s="30">
         <v>2010</v>
       </c>
-      <c r="Q10" s="41">
+      <c r="Q10" s="50">
         <v>2011</v>
       </c>
-      <c r="R10" s="41"/>
-      <c r="S10" s="41"/>
+      <c r="R10" s="50"/>
+      <c r="S10" s="50"/>
       <c r="T10" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="2:20" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="P11" s="42" t="s">
+      <c r="P11" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="Q11" s="42" t="s">
+      <c r="Q11" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="R11" s="42" t="s">
+      <c r="R11" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="S11" s="42" t="s">
+      <c r="S11" s="31" t="s">
         <v>56</v>
       </c>
       <c r="T11" s="3" t="s">
@@ -7459,37 +8194,335 @@
       </c>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="P12" s="43" t="s">
+      <c r="P12" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="Q12" s="44" t="s">
+      <c r="Q12" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="R12" s="45"/>
-      <c r="S12" s="45"/>
+      <c r="R12" s="34"/>
+      <c r="S12" s="34"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="P13" s="45"/>
-      <c r="Q13" s="43" t="s">
+      <c r="P13" s="34"/>
+      <c r="Q13" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="R13" s="44" t="s">
+      <c r="R13" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="S13" s="45"/>
+      <c r="S13" s="34"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="P14" s="45"/>
-      <c r="Q14" s="45"/>
-      <c r="R14" s="46" t="s">
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="S14" s="44" t="s">
+      <c r="S14" s="33" t="s">
         <v>66</v>
       </c>
     </row>
+    <row r="18" spans="24:42" ht="23" x14ac:dyDescent="0.35">
+      <c r="X18" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y18" s="52"/>
+      <c r="Z18" s="52"/>
+      <c r="AA18" s="52"/>
+      <c r="AB18" s="52"/>
+      <c r="AC18" s="52"/>
+      <c r="AD18" s="52"/>
+      <c r="AE18" s="52"/>
+      <c r="AF18" s="52"/>
+      <c r="AG18" s="52"/>
+      <c r="AH18" s="52"/>
+      <c r="AI18" s="53"/>
+    </row>
+    <row r="19" spans="24:42" ht="24.5" x14ac:dyDescent="0.35">
+      <c r="X19" s="54">
+        <v>2010</v>
+      </c>
+      <c r="Y19" s="54"/>
+      <c r="Z19" s="54"/>
+      <c r="AA19" s="54"/>
+      <c r="AB19" s="54"/>
+      <c r="AC19" s="54"/>
+      <c r="AD19" s="54">
+        <v>2011</v>
+      </c>
+      <c r="AE19" s="54"/>
+      <c r="AF19" s="54"/>
+      <c r="AG19" s="54"/>
+      <c r="AH19" s="54"/>
+      <c r="AI19" s="54"/>
+      <c r="AJ19" s="43"/>
+    </row>
+    <row r="20" spans="24:42" ht="24.5" x14ac:dyDescent="0.35">
+      <c r="X20" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y20" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z20" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA20" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB20" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC20" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD20" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE20" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF20" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG20" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH20" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI20" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ20" s="43"/>
+    </row>
+    <row r="21" spans="24:42" ht="24.5" x14ac:dyDescent="0.35">
+      <c r="X21" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y21" s="55"/>
+      <c r="Z21" s="55"/>
+      <c r="AA21" s="55"/>
+      <c r="AB21" s="55"/>
+      <c r="AC21" s="55"/>
+      <c r="AD21" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE21" s="57"/>
+      <c r="AF21" s="58"/>
+      <c r="AG21" s="26"/>
+      <c r="AH21" s="26"/>
+      <c r="AI21" s="26"/>
+      <c r="AJ21" s="43"/>
+    </row>
+    <row r="22" spans="24:42" ht="24.5" x14ac:dyDescent="0.35">
+      <c r="X22" s="27"/>
+      <c r="Y22" s="28"/>
+      <c r="Z22" s="28"/>
+      <c r="AA22" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB22" s="55"/>
+      <c r="AC22" s="55"/>
+      <c r="AD22" s="60"/>
+      <c r="AE22" s="55"/>
+      <c r="AF22" s="55"/>
+      <c r="AG22" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH22" s="57"/>
+      <c r="AI22" s="58"/>
+      <c r="AJ22" s="43"/>
+    </row>
+    <row r="25" spans="24:42" ht="23" x14ac:dyDescent="0.35">
+      <c r="AM25" s="72" t="s">
+        <v>64</v>
+      </c>
+      <c r="AN25" s="72"/>
+      <c r="AO25" s="72"/>
+      <c r="AP25" s="72"/>
+    </row>
+    <row r="26" spans="24:42" ht="23" x14ac:dyDescent="0.35">
+      <c r="AM26" s="23">
+        <v>2010</v>
+      </c>
+      <c r="AN26" s="54">
+        <v>2011</v>
+      </c>
+      <c r="AO26" s="54"/>
+      <c r="AP26" s="54"/>
+    </row>
+    <row r="27" spans="24:42" ht="23" x14ac:dyDescent="0.35">
+      <c r="AM27" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN27" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO27" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP27" s="24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="24:42" ht="23" x14ac:dyDescent="0.35">
+      <c r="AM28" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN28" s="73" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO28" s="74"/>
+      <c r="AP28" s="74"/>
+    </row>
+    <row r="29" spans="24:42" ht="23" x14ac:dyDescent="0.35">
+      <c r="AM29" s="74"/>
+      <c r="AN29" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO29" s="73" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP29" s="74"/>
+    </row>
+    <row r="30" spans="24:42" ht="23" x14ac:dyDescent="0.35">
+      <c r="AM30" s="74"/>
+      <c r="AN30" s="74"/>
+      <c r="AO30" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP30" s="73" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="45:56" ht="23" x14ac:dyDescent="0.35">
+      <c r="AS35" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT35" s="52"/>
+      <c r="AU35" s="52"/>
+      <c r="AV35" s="52"/>
+      <c r="AW35" s="52"/>
+      <c r="AX35" s="52"/>
+      <c r="AY35" s="52"/>
+      <c r="AZ35" s="52"/>
+      <c r="BA35" s="52"/>
+      <c r="BB35" s="52"/>
+      <c r="BC35" s="52"/>
+      <c r="BD35" s="53"/>
+    </row>
+    <row r="36" spans="45:56" ht="23" x14ac:dyDescent="0.35">
+      <c r="AS36" s="54">
+        <v>2010</v>
+      </c>
+      <c r="AT36" s="54"/>
+      <c r="AU36" s="54"/>
+      <c r="AV36" s="54"/>
+      <c r="AW36" s="54"/>
+      <c r="AX36" s="54"/>
+      <c r="AY36" s="54">
+        <v>2011</v>
+      </c>
+      <c r="AZ36" s="54"/>
+      <c r="BA36" s="54"/>
+      <c r="BB36" s="54"/>
+      <c r="BC36" s="54"/>
+      <c r="BD36" s="54"/>
+    </row>
+    <row r="37" spans="45:56" ht="23" x14ac:dyDescent="0.35">
+      <c r="AS37" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="AT37" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU37" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="AV37" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="AW37" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="AX37" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="AY37" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="AZ37" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="BA37" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB37" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="BC37" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="BD37" s="24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="45:56" ht="23" x14ac:dyDescent="0.35">
+      <c r="AS38" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="AT38" s="55"/>
+      <c r="AU38" s="55"/>
+      <c r="AV38" s="55"/>
+      <c r="AW38" s="55"/>
+      <c r="AX38" s="55"/>
+      <c r="AY38" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="AZ38" s="57"/>
+      <c r="BA38" s="58"/>
+      <c r="BB38" s="26"/>
+      <c r="BC38" s="26"/>
+      <c r="BD38" s="26"/>
+    </row>
+    <row r="39" spans="45:56" ht="23" x14ac:dyDescent="0.35">
+      <c r="AS39" s="27"/>
+      <c r="AT39" s="28"/>
+      <c r="AU39" s="28"/>
+      <c r="AV39" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW39" s="55"/>
+      <c r="AX39" s="55"/>
+      <c r="AY39" s="60"/>
+      <c r="AZ39" s="55"/>
+      <c r="BA39" s="55"/>
+      <c r="BB39" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC39" s="57"/>
+      <c r="BD39" s="58"/>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="25">
+    <mergeCell ref="AS36:AX36"/>
+    <mergeCell ref="AY36:BD36"/>
+    <mergeCell ref="AS38:AX38"/>
+    <mergeCell ref="AY38:BA38"/>
+    <mergeCell ref="AV39:BA39"/>
+    <mergeCell ref="BB39:BD39"/>
+    <mergeCell ref="AA22:AF22"/>
+    <mergeCell ref="AG22:AI22"/>
+    <mergeCell ref="AM25:AP25"/>
+    <mergeCell ref="AN26:AP26"/>
+    <mergeCell ref="AS35:BD35"/>
+    <mergeCell ref="X18:AI18"/>
+    <mergeCell ref="X19:AC19"/>
+    <mergeCell ref="AD19:AI19"/>
+    <mergeCell ref="X21:AC21"/>
+    <mergeCell ref="AD21:AF21"/>
     <mergeCell ref="P9:S9"/>
     <mergeCell ref="Q10:S10"/>
     <mergeCell ref="B3:M3"/>
@@ -7506,562 +8539,951 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F08A5884-88A6-430F-9989-E31867C88D1C}">
-  <dimension ref="B2:R14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F39A9FB-F247-4A30-BD72-B93854D806B7}">
+  <dimension ref="H13:AE17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:G4"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13:AE17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="47"/>
-    <col min="2" max="13" width="7.5" style="47" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.6640625" style="47"/>
+    <col min="1" max="16384" width="8.6640625" style="22"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" ht="23" x14ac:dyDescent="0.35">
-      <c r="B2" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="26"/>
-    </row>
-    <row r="3" spans="2:18" ht="46" x14ac:dyDescent="0.35">
-      <c r="B3" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="48" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" s="48" t="s">
-        <v>70</v>
-      </c>
-      <c r="F3" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="G3" s="48" t="s">
-        <v>72</v>
-      </c>
-      <c r="H3" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="I3" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="J3" s="48" t="s">
-        <v>75</v>
-      </c>
-      <c r="K3" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="L3" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="M3" s="29" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="2:18" ht="26" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="30" t="s">
+    <row r="13" spans="8:31" ht="23" x14ac:dyDescent="0.35">
+      <c r="H13" s="72" t="s">
+        <v>84</v>
+      </c>
+      <c r="I13" s="72"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="72"/>
+      <c r="M13" s="72"/>
+      <c r="N13" s="72"/>
+      <c r="O13" s="72"/>
+      <c r="P13" s="72"/>
+      <c r="Q13" s="72"/>
+      <c r="R13" s="72"/>
+      <c r="S13" s="72"/>
+      <c r="T13" s="72"/>
+      <c r="U13" s="72"/>
+      <c r="V13" s="72"/>
+      <c r="W13" s="72"/>
+      <c r="X13" s="72"/>
+      <c r="Y13" s="72"/>
+      <c r="Z13" s="72"/>
+      <c r="AA13" s="72"/>
+      <c r="AB13" s="72"/>
+      <c r="AC13" s="72"/>
+      <c r="AD13" s="72"/>
+      <c r="AE13" s="72"/>
+    </row>
+    <row r="14" spans="8:31" ht="23" x14ac:dyDescent="0.35">
+      <c r="H14" s="75">
+        <v>2010</v>
+      </c>
+      <c r="I14" s="76"/>
+      <c r="J14" s="76"/>
+      <c r="K14" s="76"/>
+      <c r="L14" s="76"/>
+      <c r="M14" s="76"/>
+      <c r="N14" s="76"/>
+      <c r="O14" s="76"/>
+      <c r="P14" s="76"/>
+      <c r="Q14" s="76"/>
+      <c r="R14" s="76"/>
+      <c r="S14" s="77"/>
+      <c r="T14" s="54">
+        <v>2011</v>
+      </c>
+      <c r="U14" s="54"/>
+      <c r="V14" s="54"/>
+      <c r="W14" s="54"/>
+      <c r="X14" s="54"/>
+      <c r="Y14" s="54"/>
+      <c r="Z14" s="54"/>
+      <c r="AA14" s="54"/>
+      <c r="AB14" s="54"/>
+      <c r="AC14" s="54"/>
+      <c r="AD14" s="54"/>
+      <c r="AE14" s="54"/>
+    </row>
+    <row r="15" spans="8:31" ht="23" x14ac:dyDescent="0.35">
+      <c r="H15" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="I15" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="J15" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="K15" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="L15" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="M15" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="N15" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="O15" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="P15" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q15" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="R15" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="S15" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="T15" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="U15" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="V15" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="W15" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="X15" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y15" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z15" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA15" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB15" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC15" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD15" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE15" s="24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="8:31" ht="23" x14ac:dyDescent="0.35">
+      <c r="H16" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="31" t="s">
+      <c r="I16" s="55"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="55"/>
+      <c r="M16" s="55"/>
+      <c r="N16" s="79"/>
+      <c r="O16" s="79"/>
+      <c r="P16" s="79"/>
+      <c r="Q16" s="79"/>
+      <c r="R16" s="79"/>
+      <c r="S16" s="79"/>
+      <c r="T16" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="I4" s="32"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-    </row>
-    <row r="5" spans="2:18" ht="26" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="35"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="37" t="s">
+      <c r="U16" s="57"/>
+      <c r="V16" s="57"/>
+      <c r="W16" s="57"/>
+      <c r="X16" s="57"/>
+      <c r="Y16" s="58"/>
+      <c r="Z16" s="79"/>
+      <c r="AA16" s="79"/>
+      <c r="AB16" s="79"/>
+      <c r="AC16" s="79"/>
+      <c r="AD16" s="79"/>
+      <c r="AE16" s="79"/>
+    </row>
+    <row r="17" spans="8:31" ht="23" x14ac:dyDescent="0.35">
+      <c r="H17" s="81"/>
+      <c r="I17" s="81"/>
+      <c r="J17" s="81"/>
+      <c r="K17" s="81"/>
+      <c r="L17" s="81"/>
+      <c r="M17" s="82"/>
+      <c r="N17" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="31" t="s">
+      <c r="O17" s="78"/>
+      <c r="P17" s="78"/>
+      <c r="Q17" s="78"/>
+      <c r="R17" s="78"/>
+      <c r="S17" s="60"/>
+      <c r="T17" s="80"/>
+      <c r="U17" s="81"/>
+      <c r="V17" s="81"/>
+      <c r="W17" s="81"/>
+      <c r="X17" s="81"/>
+      <c r="Y17" s="82"/>
+      <c r="Z17" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="L5" s="32"/>
-      <c r="M5" s="33"/>
-    </row>
-    <row r="6" spans="2:18" ht="26" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="2:18" ht="26" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="O10" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="39"/>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="O11" s="49" t="s">
-        <v>79</v>
-      </c>
-      <c r="P11" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q11" s="49" t="s">
-        <v>74</v>
-      </c>
-      <c r="R11" s="50" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="O12" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="P12" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q12" s="45"/>
-      <c r="R12" s="45"/>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="O13" s="45"/>
-      <c r="P13" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q13" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="R13" s="45"/>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="O14" s="45"/>
-      <c r="P14" s="45"/>
-      <c r="Q14" s="46" t="s">
-        <v>65</v>
-      </c>
-      <c r="R14" s="44" t="s">
-        <v>66</v>
-      </c>
+      <c r="AA17" s="83"/>
+      <c r="AB17" s="83"/>
+      <c r="AC17" s="83"/>
+      <c r="AD17" s="83"/>
+      <c r="AE17" s="83"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="O10:R10"/>
+  <mergeCells count="7">
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="H14:S14"/>
+    <mergeCell ref="T16:Y16"/>
+    <mergeCell ref="N17:S17"/>
+    <mergeCell ref="Z17:AE17"/>
+    <mergeCell ref="T14:AE14"/>
+    <mergeCell ref="H13:AE13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{106EE4C8-41DD-446B-9628-23092B02479D}">
-  <dimension ref="B3:R18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF6E01A-473B-4305-97A9-B7DFBBAC90E0}">
+  <dimension ref="A4:J46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.6640625" style="51"/>
+    <col min="7" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B3" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
-    </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B4" s="45"/>
-      <c r="C4" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="45"/>
-    </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="46" t="s">
+    <row r="4" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G4">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F5" s="84">
+        <v>0</v>
+      </c>
+      <c r="G5" s="84">
+        <v>-123400</v>
+      </c>
+      <c r="H5">
+        <f>($G$4+G5)/$G$4</f>
+        <v>0.98765999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F6" s="84">
+        <v>1</v>
+      </c>
+      <c r="G6" s="84">
+        <v>36200</v>
+      </c>
+      <c r="H6">
+        <f t="shared" ref="H6:H8" si="0">($G$4+G6)/$G$4</f>
+        <v>1.00362</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F7" s="84">
+        <v>2</v>
+      </c>
+      <c r="G7" s="84">
+        <v>54800</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>1.0054799999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F8" s="84">
+        <v>3</v>
+      </c>
+      <c r="G8" s="84">
+        <v>48100</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>1.00481</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G9">
+        <f>SUM(G5:G8)</f>
+        <v>15700</v>
+      </c>
+      <c r="H9">
+        <f>PRODUCT(H5:H8)</f>
+        <v>1.0014612685112632</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E10" s="85">
+        <f>IRR(G5:G8)</f>
+        <v>5.9616378567045158E-2</v>
+      </c>
+      <c r="G10">
+        <f>G9/G4+1</f>
+        <v>1.0015700000000001</v>
+      </c>
+      <c r="H10">
+        <f>POWER(H9,1/4)-1</f>
+        <v>3.6511711337761099E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E11">
+        <v>5.9616378567045158E-2</v>
+      </c>
+      <c r="G11">
+        <f>POWER(G10,1/4)-1</f>
+        <v>3.9226912703171912E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15">
+        <v>69</v>
+      </c>
+      <c r="D15">
+        <v>74</v>
+      </c>
+      <c r="E15">
+        <v>39</v>
+      </c>
+      <c r="F15">
+        <v>22</v>
+      </c>
+      <c r="G15" s="86">
+        <v>-9.9171678419000001E-2</v>
+      </c>
+      <c r="H15">
+        <f>G15*$G$4</f>
+        <v>-991716.78419000003</v>
+      </c>
+      <c r="I15">
+        <f>SUM(H15:H21)</f>
+        <v>16559834.880619999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16">
+        <v>93</v>
+      </c>
+      <c r="D16">
+        <v>83</v>
+      </c>
+      <c r="E16">
+        <v>117</v>
+      </c>
+      <c r="F16">
+        <v>127</v>
+      </c>
+      <c r="G16" s="86">
+        <v>0.38055214421200001</v>
+      </c>
+      <c r="H16">
+        <f>G16*$G$4</f>
+        <v>3805521.4421200003</v>
+      </c>
+      <c r="I16">
+        <f>I15/G4</f>
+        <v>1.6559834880619999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17">
+        <v>74</v>
+      </c>
+      <c r="D17">
+        <v>87</v>
+      </c>
+      <c r="E17">
+        <v>91</v>
+      </c>
+      <c r="F17">
+        <v>127</v>
+      </c>
+      <c r="G17" s="86">
+        <v>-0.23625389695599999</v>
+      </c>
+      <c r="H17">
+        <f>G17*$G$4</f>
+        <v>-2362538.9695600001</v>
+      </c>
+      <c r="I17">
+        <f>POWER(I16,1/10)-1</f>
+        <v>5.1733240502684685E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18">
+        <v>104</v>
+      </c>
+      <c r="D18">
+        <v>94</v>
+      </c>
+      <c r="E18">
         <v>65</v>
       </c>
-      <c r="E5" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="45"/>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B6" s="49" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" s="49" t="s">
+      <c r="F18">
+        <v>48</v>
+      </c>
+      <c r="G18" s="86">
+        <v>0.37137176452300003</v>
+      </c>
+      <c r="H18">
+        <f>G18*$G$4</f>
+        <v>3713717.6452300004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19">
+        <v>13</v>
+      </c>
+      <c r="D19">
+        <v>14</v>
+      </c>
+      <c r="E19">
+        <v>123</v>
+      </c>
+      <c r="F19">
+        <v>11</v>
+      </c>
+      <c r="G19" s="86">
+        <v>0.142957504421</v>
+      </c>
+      <c r="H19">
+        <f>G19*$G$4</f>
+        <v>1429575.04421</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20">
+        <v>16</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>18</v>
+      </c>
+      <c r="F20">
+        <v>15</v>
+      </c>
+      <c r="G20" s="86">
+        <v>0.62840829536599996</v>
+      </c>
+      <c r="H20">
+        <f>G20*$G$4</f>
+        <v>6284082.9536599992</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21">
+        <v>14</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>24</v>
+      </c>
+      <c r="F21">
+        <v>28</v>
+      </c>
+      <c r="G21" s="86">
+        <v>0.46811935491500001</v>
+      </c>
+      <c r="H21">
+        <f>G21*$G$4</f>
+        <v>4681193.5491500003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H22" t="s">
+        <v>85</v>
+      </c>
+      <c r="I22">
+        <v>2.5592116235</v>
+      </c>
+      <c r="J22">
+        <v>0.1353646838</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H23" s="86"/>
+      <c r="I23" s="86"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H24" s="86"/>
+      <c r="I24" s="86"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H25" s="86"/>
+      <c r="I25" s="86"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H26" s="86"/>
+      <c r="I26" s="86"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27">
+        <v>69</v>
+      </c>
+      <c r="D27">
         <v>74</v>
       </c>
-      <c r="E6" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="45"/>
-      <c r="R6" s="45"/>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B7" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="45"/>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="45"/>
-      <c r="R8" s="45"/>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="45"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="45"/>
-      <c r="R9" s="45"/>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="45"/>
-      <c r="N10" s="45"/>
-      <c r="O10" s="45"/>
-      <c r="P10" s="45"/>
-      <c r="Q10" s="45"/>
-      <c r="R10" s="45"/>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="45"/>
-      <c r="N11" s="45"/>
-      <c r="O11" s="45"/>
-      <c r="P11" s="45"/>
-      <c r="Q11" s="45"/>
-      <c r="R11" s="45"/>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="45"/>
-      <c r="M12" s="45"/>
-      <c r="N12" s="45"/>
-      <c r="O12" s="45"/>
-      <c r="P12" s="45"/>
-      <c r="Q12" s="45"/>
-      <c r="R12" s="45"/>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="45"/>
-      <c r="N13" s="45"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="45"/>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="45"/>
-      <c r="M14" s="45"/>
-      <c r="N14" s="45"/>
-      <c r="O14" s="45"/>
-      <c r="P14" s="45"/>
-      <c r="Q14" s="45"/>
-      <c r="R14" s="45"/>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="52" t="s">
-        <v>60</v>
-      </c>
-      <c r="H15" s="52"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="N15" s="54"/>
-      <c r="O15" s="55"/>
-      <c r="P15" s="45"/>
-      <c r="Q15" s="45"/>
-      <c r="R15" s="45"/>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="58" t="s">
-        <v>62</v>
-      </c>
-      <c r="K16" s="52"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="59"/>
-      <c r="N16" s="60"/>
-      <c r="O16" s="60"/>
-      <c r="P16" s="53" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q16" s="54"/>
-      <c r="R16" s="55"/>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="49" t="s">
-        <v>67</v>
-      </c>
-      <c r="H17" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="I17" s="49" t="s">
+      <c r="E27">
+        <v>39</v>
+      </c>
+      <c r="F27">
+        <v>22</v>
+      </c>
+      <c r="G27" s="86">
+        <v>-9.9171678419000001E-2</v>
+      </c>
+      <c r="H27" s="86">
+        <f>G27+1</f>
+        <v>0.90082832158100001</v>
+      </c>
+      <c r="I27">
+        <f>PRODUCT(H27:H33)</f>
+        <v>3.5592116234972573</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28">
+        <v>93</v>
+      </c>
+      <c r="D28">
+        <v>83</v>
+      </c>
+      <c r="E28">
+        <v>117</v>
+      </c>
+      <c r="F28">
+        <v>127</v>
+      </c>
+      <c r="G28" s="86">
+        <v>0.38055214421200001</v>
+      </c>
+      <c r="H28" s="86">
+        <f t="shared" ref="H28:H33" si="1">G28+1</f>
+        <v>1.3805521442119999</v>
+      </c>
+      <c r="I28">
+        <f>POWER(I27,1/10)-1</f>
+        <v>0.13536468378700572</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29">
+        <v>74</v>
+      </c>
+      <c r="D29">
+        <v>87</v>
+      </c>
+      <c r="E29">
+        <v>91</v>
+      </c>
+      <c r="F29">
+        <v>127</v>
+      </c>
+      <c r="G29" s="86">
+        <v>-0.23625389695599999</v>
+      </c>
+      <c r="H29" s="86">
+        <f t="shared" si="1"/>
+        <v>0.76374610304400004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B30" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30">
+        <v>104</v>
+      </c>
+      <c r="D30">
+        <v>94</v>
+      </c>
+      <c r="E30">
+        <v>65</v>
+      </c>
+      <c r="F30">
+        <v>48</v>
+      </c>
+      <c r="G30" s="86">
+        <v>0.37137176452300003</v>
+      </c>
+      <c r="H30" s="86">
+        <f t="shared" si="1"/>
+        <v>1.3713717645229999</v>
+      </c>
+      <c r="I30" s="86"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31">
+        <v>13</v>
+      </c>
+      <c r="D31">
+        <v>14</v>
+      </c>
+      <c r="E31">
+        <v>123</v>
+      </c>
+      <c r="F31">
+        <v>11</v>
+      </c>
+      <c r="G31" s="86">
+        <v>0.142957504421</v>
+      </c>
+      <c r="H31" s="86">
+        <f t="shared" si="1"/>
+        <v>1.1429575044210001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B32" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32">
+        <v>16</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>18</v>
+      </c>
+      <c r="F32">
+        <v>15</v>
+      </c>
+      <c r="G32" s="86">
+        <v>0.62840829536599996</v>
+      </c>
+      <c r="H32" s="86">
+        <f t="shared" si="1"/>
+        <v>1.628408295366</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B33" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33">
+        <v>14</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33">
+        <v>24</v>
+      </c>
+      <c r="F33">
+        <v>28</v>
+      </c>
+      <c r="G33" s="86">
+        <v>0.46811935491500001</v>
+      </c>
+      <c r="H33" s="86">
+        <f t="shared" si="1"/>
+        <v>1.468119354915</v>
+      </c>
+      <c r="J33">
+        <v>0.13536468378700572</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H34" t="s">
+        <v>85</v>
+      </c>
+      <c r="I34">
+        <v>2.5592116235</v>
+      </c>
+      <c r="J34">
+        <v>0.1353646838</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I38">
+        <f>G4</f>
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>85</v>
+      </c>
+      <c r="B39" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39">
         <v>69</v>
       </c>
-      <c r="J17" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="K17" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="L17" s="49" t="s">
-        <v>72</v>
-      </c>
-      <c r="M17" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="N17" s="49" t="s">
+      <c r="D39">
         <v>74</v>
       </c>
-      <c r="O17" s="49" t="s">
-        <v>75</v>
-      </c>
-      <c r="P17" s="50" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q17" s="50" t="s">
-        <v>77</v>
-      </c>
-      <c r="R17" s="50" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="61" t="s">
-        <v>47</v>
-      </c>
-      <c r="H18" s="62"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="62"/>
-      <c r="K18" s="62"/>
-      <c r="L18" s="62"/>
-      <c r="M18" s="62"/>
-      <c r="N18" s="62"/>
-      <c r="O18" s="62"/>
-      <c r="P18" s="62"/>
-      <c r="Q18" s="62"/>
-      <c r="R18" s="63"/>
+      <c r="E39">
+        <v>39</v>
+      </c>
+      <c r="F39">
+        <v>22</v>
+      </c>
+      <c r="G39" s="86">
+        <v>-9.9171678419000001E-2</v>
+      </c>
+      <c r="H39" s="86">
+        <f>G39+1</f>
+        <v>0.90082832158100001</v>
+      </c>
+      <c r="I39">
+        <f>H39*I38</f>
+        <v>9008283.2158100009</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B40" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40">
+        <v>93</v>
+      </c>
+      <c r="D40">
+        <v>83</v>
+      </c>
+      <c r="E40">
+        <v>117</v>
+      </c>
+      <c r="F40">
+        <v>127</v>
+      </c>
+      <c r="G40" s="86">
+        <v>0.38055214421200001</v>
+      </c>
+      <c r="H40" s="86">
+        <f t="shared" ref="H40:H45" si="2">G40+1</f>
+        <v>1.3805521442119999</v>
+      </c>
+      <c r="I40">
+        <f t="shared" ref="I40:I45" si="3">H40*I39</f>
+        <v>12436404.709255466</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B41" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41">
+        <v>74</v>
+      </c>
+      <c r="D41">
+        <v>87</v>
+      </c>
+      <c r="E41">
+        <v>91</v>
+      </c>
+      <c r="F41">
+        <v>127</v>
+      </c>
+      <c r="G41" s="86">
+        <v>-0.23625389695599999</v>
+      </c>
+      <c r="H41" s="86">
+        <f t="shared" si="2"/>
+        <v>0.76374610304400004</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="3"/>
+        <v>9498255.6325719133</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B42" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42">
+        <v>104</v>
+      </c>
+      <c r="D42">
+        <v>94</v>
+      </c>
+      <c r="E42">
+        <v>65</v>
+      </c>
+      <c r="F42">
+        <v>48</v>
+      </c>
+      <c r="G42" s="86">
+        <v>0.37137176452300003</v>
+      </c>
+      <c r="H42" s="86">
+        <f t="shared" si="2"/>
+        <v>1.3713717645229999</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="3"/>
+        <v>13025639.586730668</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B43" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43">
+        <v>13</v>
+      </c>
+      <c r="D43">
+        <v>14</v>
+      </c>
+      <c r="E43">
+        <v>123</v>
+      </c>
+      <c r="F43">
+        <v>11</v>
+      </c>
+      <c r="G43" s="86">
+        <v>0.142957504421</v>
+      </c>
+      <c r="H43" s="86">
+        <f t="shared" si="2"/>
+        <v>1.1429575044210001</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="3"/>
+        <v>14887752.515537072</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B44" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44">
+        <v>16</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44">
+        <v>18</v>
+      </c>
+      <c r="F44">
+        <v>15</v>
+      </c>
+      <c r="G44" s="86">
+        <v>0.62840829536599996</v>
+      </c>
+      <c r="H44" s="86">
+        <f t="shared" si="2"/>
+        <v>1.628408295366</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="3"/>
+        <v>24243339.695656601</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B45" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45">
+        <v>14</v>
+      </c>
+      <c r="D45">
+        <v>3</v>
+      </c>
+      <c r="E45">
+        <v>24</v>
+      </c>
+      <c r="F45">
+        <v>28</v>
+      </c>
+      <c r="G45" s="86">
+        <v>0.46811935491500001</v>
+      </c>
+      <c r="H45" s="86">
+        <f t="shared" si="2"/>
+        <v>1.468119354915</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="3"/>
+        <v>35592116.234972581</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H46" t="s">
+        <v>85</v>
+      </c>
+      <c r="I46">
+        <v>2.5592116235</v>
+      </c>
+      <c r="J46">
+        <v>0.1353646838</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="G15:L15"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="J16:O16"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="G18:R18"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="E10" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>